--- a/spin.xlsx
+++ b/spin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24240" windowHeight="11660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:V370"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
